--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H2">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I2">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J2">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6105093333333333</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N2">
-        <v>1.831528</v>
+        <v>2.446501</v>
       </c>
       <c r="O2">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P2">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q2">
-        <v>0.1550254139946667</v>
+        <v>0.1352732924592222</v>
       </c>
       <c r="R2">
-        <v>1.395228725952</v>
+        <v>1.217459632133</v>
       </c>
       <c r="S2">
-        <v>0.003240858207289948</v>
+        <v>0.002636268889706438</v>
       </c>
       <c r="T2">
-        <v>0.00324085820728995</v>
+        <v>0.002636268889706439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H3">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I3">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J3">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P3">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q3">
-        <v>0.8463761349946667</v>
+        <v>0.552892545899889</v>
       </c>
       <c r="R3">
-        <v>7.617385214952001</v>
+        <v>4.976032913099</v>
       </c>
       <c r="S3">
-        <v>0.0176937766065</v>
+        <v>0.01077502729184955</v>
       </c>
       <c r="T3">
-        <v>0.01769377660650001</v>
+        <v>0.01077502729184956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.253928</v>
+        <v>0.1658776666666667</v>
       </c>
       <c r="H4">
-        <v>0.761784</v>
+        <v>0.497633</v>
       </c>
       <c r="I4">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="J4">
-        <v>0.0213224453904554</v>
+        <v>0.01379803068909966</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07255766666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N4">
-        <v>0.217673</v>
+        <v>0.358896</v>
       </c>
       <c r="O4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q4">
-        <v>0.01842442318133333</v>
+        <v>0.01984427701866667</v>
       </c>
       <c r="R4">
-        <v>0.165819808632</v>
+        <v>0.178598493168</v>
       </c>
       <c r="S4">
-        <v>0.0003851687381003321</v>
+        <v>0.0003867345075436641</v>
       </c>
       <c r="T4">
-        <v>0.0003851687381003322</v>
+        <v>0.0003867345075436642</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.253928</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H5">
-        <v>0.761784</v>
+        <v>34.555187</v>
       </c>
       <c r="I5">
-        <v>0.0213224453904554</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J5">
-        <v>0.0213224453904554</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0004976666666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N5">
-        <v>0.001493</v>
+        <v>2.446501</v>
       </c>
       <c r="O5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q5">
-        <v>0.0001263715013333333</v>
+        <v>9.39325550563189</v>
       </c>
       <c r="R5">
-        <v>0.001137343512</v>
+        <v>84.53929955068701</v>
       </c>
       <c r="S5">
-        <v>2.641838565112787E-06</v>
+        <v>0.1830601356141742</v>
       </c>
       <c r="T5">
-        <v>2.641838565112788E-06</v>
+        <v>0.1830601356141742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H6">
         <v>34.555187</v>
       </c>
       <c r="I6">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J6">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6105093333333333</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N6">
-        <v>1.831528</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O6">
-        <v>0.1519928013857481</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P6">
-        <v>0.1519928013857482</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q6">
-        <v>7.032088059526221</v>
+        <v>38.39236006148457</v>
       </c>
       <c r="R6">
-        <v>63.28879253573599</v>
+        <v>345.531240553361</v>
       </c>
       <c r="S6">
-        <v>0.1470081563716079</v>
+        <v>0.7482081835408121</v>
       </c>
       <c r="T6">
-        <v>0.1470081563716079</v>
+        <v>0.7482081835408123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,14 +832,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.51839566666666</v>
+        <v>11.51839566666667</v>
       </c>
       <c r="H7">
         <v>34.555187</v>
       </c>
       <c r="I7">
-        <v>0.9672047296405205</v>
+        <v>0.9581228147923823</v>
       </c>
       <c r="J7">
-        <v>0.9672047296405206</v>
+        <v>0.9581228147923824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,60 +865,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.333134333333334</v>
+        <v>0.119632</v>
       </c>
       <c r="N7">
-        <v>9.999403000000001</v>
+        <v>0.358896</v>
       </c>
       <c r="O7">
-        <v>0.8298192952305694</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P7">
-        <v>0.8298192952305695</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q7">
-        <v>38.39236006148455</v>
+        <v>1.377968710394667</v>
       </c>
       <c r="R7">
-        <v>345.531240553361</v>
+        <v>12.401718393552</v>
       </c>
       <c r="S7">
-        <v>0.8026051470939701</v>
+        <v>0.02685449563739588</v>
       </c>
       <c r="T7">
-        <v>0.8026051470939704</v>
+        <v>0.02685449563739589</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>11.51839566666666</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H8">
-        <v>34.555187</v>
+        <v>0.478273</v>
       </c>
       <c r="I8">
-        <v>0.9672047296405205</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J8">
-        <v>0.9672047296405206</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,90 +927,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07255766666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N8">
-        <v>0.217673</v>
+        <v>2.446501</v>
       </c>
       <c r="O8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q8">
-        <v>0.8357479133167778</v>
+        <v>0.1300105969747778</v>
       </c>
       <c r="R8">
-        <v>7.521731219851</v>
+        <v>1.170095372773</v>
       </c>
       <c r="S8">
-        <v>0.01747159007226589</v>
+        <v>0.00253370703045531</v>
       </c>
       <c r="T8">
-        <v>0.0174715900722659</v>
+        <v>0.002533707030455311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>11.51839566666666</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H9">
-        <v>34.555187</v>
+        <v>0.478273</v>
       </c>
       <c r="I9">
-        <v>0.9672047296405205</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J9">
-        <v>0.9672047296405206</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0004976666666666667</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N9">
-        <v>0.001493</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O9">
-        <v>0.0001238994175731531</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P9">
-        <v>0.0001238994175731531</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q9">
-        <v>0.005732321576777777</v>
+        <v>0.5313827190021112</v>
       </c>
       <c r="R9">
-        <v>0.05159089419099999</v>
+        <v>4.782444471019001</v>
       </c>
       <c r="S9">
-        <v>0.0001198361026764595</v>
+        <v>0.01035583377299086</v>
       </c>
       <c r="T9">
-        <v>0.0001198361026764595</v>
+        <v>0.01035583377299087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1366293333333334</v>
+        <v>0.1594243333333333</v>
       </c>
       <c r="H10">
-        <v>0.409888</v>
+        <v>0.478273</v>
       </c>
       <c r="I10">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="J10">
-        <v>0.01147282496902401</v>
+        <v>0.01326122972505393</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,42 +1051,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6105093333333333</v>
+        <v>0.119632</v>
       </c>
       <c r="N10">
-        <v>1.831528</v>
+        <v>0.358896</v>
       </c>
       <c r="O10">
-        <v>0.1519928013857481</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P10">
-        <v>0.1519928013857482</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q10">
-        <v>0.08341348320711113</v>
+        <v>0.01907225184533333</v>
       </c>
       <c r="R10">
-        <v>0.7507213488640001</v>
+        <v>0.171650266608</v>
       </c>
       <c r="S10">
-        <v>0.001743786806850318</v>
+        <v>0.0003716889216077528</v>
       </c>
       <c r="T10">
-        <v>0.001743786806850318</v>
+        <v>0.0003716889216077529</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1366293333333334</v>
+        <v>0.1781386666666667</v>
       </c>
       <c r="H11">
-        <v>0.409888</v>
+        <v>0.534416</v>
       </c>
       <c r="I11">
-        <v>0.01147282496902401</v>
+        <v>0.01481792479346402</v>
       </c>
       <c r="J11">
-        <v>0.01147282496902401</v>
+        <v>0.01481792479346403</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,42 +1113,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.333134333333334</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N11">
-        <v>9.999403000000001</v>
+        <v>2.446501</v>
       </c>
       <c r="O11">
-        <v>0.8298192952305694</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P11">
-        <v>0.8298192952305695</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q11">
-        <v>0.4554039218737779</v>
+        <v>0.1452721420462222</v>
       </c>
       <c r="R11">
-        <v>4.098635296864001</v>
+        <v>1.307449278416</v>
       </c>
       <c r="S11">
-        <v>0.009520371530099181</v>
+        <v>0.002831131124666884</v>
       </c>
       <c r="T11">
-        <v>0.009520371530099181</v>
+        <v>0.002831131124666885</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1366293333333334</v>
+        <v>0.1781386666666667</v>
       </c>
       <c r="H12">
-        <v>0.409888</v>
+        <v>0.534416</v>
       </c>
       <c r="I12">
-        <v>0.01147282496902401</v>
+        <v>0.01481792479346402</v>
       </c>
       <c r="J12">
-        <v>0.01147282496902401</v>
+        <v>0.01481792479346403</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,42 +1175,42 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07255766666666667</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N12">
-        <v>0.217673</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O12">
-        <v>0.01806400396610915</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P12">
-        <v>0.01806400396610915</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q12">
-        <v>0.009913505624888892</v>
+        <v>0.5937601059608889</v>
       </c>
       <c r="R12">
-        <v>0.08922155062400002</v>
+        <v>5.343840953648001</v>
       </c>
       <c r="S12">
-        <v>0.0002072451557429258</v>
+        <v>0.01157147332512328</v>
       </c>
       <c r="T12">
-        <v>0.0002072451557429258</v>
+        <v>0.01157147332512328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,46 +1219,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1366293333333334</v>
+        <v>0.1781386666666667</v>
       </c>
       <c r="H13">
-        <v>0.409888</v>
+        <v>0.534416</v>
       </c>
       <c r="I13">
-        <v>0.01147282496902401</v>
+        <v>0.01481792479346402</v>
       </c>
       <c r="J13">
-        <v>0.01147282496902401</v>
+        <v>0.01481792479346403</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0004976666666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N13">
-        <v>0.001493</v>
+        <v>0.358896</v>
       </c>
       <c r="O13">
-        <v>0.0001238994175731531</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P13">
-        <v>0.0001238994175731531</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q13">
-        <v>6.79958648888889E-05</v>
+        <v>0.02131108497066667</v>
       </c>
       <c r="R13">
-        <v>0.0006119627840000001</v>
+        <v>0.191799764736</v>
       </c>
       <c r="S13">
-        <v>1.421476331580803E-06</v>
+        <v>0.0004153203436738616</v>
       </c>
       <c r="T13">
-        <v>1.421476331580803E-06</v>
+        <v>0.0004153203436738617</v>
       </c>
     </row>
   </sheetData>
